--- a/paper/04_CRC/LOSO_results_ROC.xlsx
+++ b/paper/04_CRC/LOSO_results_ROC.xlsx
@@ -374,27 +374,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>GER</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>US</t>
         </is>
       </c>
     </row>
@@ -411,10 +411,10 @@
         <v>0.8517267267267267</v>
       </c>
       <c r="D2" t="n">
+        <v>0.910277777777778</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.8388493659140117</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9102777777777779</v>
       </c>
       <c r="F2" t="n">
         <v>0.7267011834319527</v>

--- a/paper/04_CRC/LOSO_results_ROC.xlsx
+++ b/paper/04_CRC/LOSO_results_ROC.xlsx
@@ -374,27 +374,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
